--- a/src/config/excel/exam.xlsx
+++ b/src/config/excel/exam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\test_ExamReg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569824BF-537E-48FA-9D2C-A60CF48BB80C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ED068B-6C53-4331-AD2F-5788ADA2863D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="7100" windowHeight="10401" xr2:uid="{2F6EBE46-FFA3-42E0-971A-65BAE9437A39}"/>
+    <workbookView xWindow="343" yWindow="1063" windowWidth="11487" windowHeight="10402" xr2:uid="{2F6EBE46-FFA3-42E0-971A-65BAE9437A39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>examid</t>
-  </si>
-  <si>
-    <t>courseid</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>class</t>
   </si>
@@ -57,10 +51,19 @@
     <t>10:00Am</t>
   </si>
   <si>
-    <t>1/12/2000</t>
-  </si>
-  <si>
-    <t>slot</t>
+    <t>totalSlot</t>
+  </si>
+  <si>
+    <t>courseID</t>
+  </si>
+  <si>
+    <t>courseName</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>11/12/2001</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,48 +429,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/config/excel/exam.xlsx
+++ b/src/config/excel/exam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\test_ExamReg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ED068B-6C53-4331-AD2F-5788ADA2863D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364A4CD2-F334-43EA-B905-CA008D8B7ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="343" yWindow="1063" windowWidth="11487" windowHeight="10402" xr2:uid="{2F6EBE46-FFA3-42E0-971A-65BAE9437A39}"/>
   </bookViews>
@@ -60,10 +60,10 @@
     <t>courseName</t>
   </si>
   <si>
-    <t>ab</t>
-  </si>
-  <si>
     <t>11/12/2001</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,16 +452,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>

--- a/src/config/excel/exam.xlsx
+++ b/src/config/excel/exam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\test_ExamReg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364A4CD2-F334-43EA-B905-CA008D8B7ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB26713-852F-4C6A-B441-519A0B4F9236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="343" yWindow="1063" windowWidth="11487" windowHeight="10402" xr2:uid="{2F6EBE46-FFA3-42E0-971A-65BAE9437A39}"/>
+    <workbookView xWindow="377" yWindow="377" windowWidth="11486" windowHeight="10401" xr2:uid="{2F6EBE46-FFA3-42E0-971A-65BAE9437A39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>class</t>
   </si>
@@ -63,7 +63,25 @@
     <t>11/12/2001</t>
   </si>
   <si>
-    <t>test</t>
+    <t>MATH1100</t>
+  </si>
+  <si>
+    <t>Phát triển ứng dụng Web</t>
+  </si>
+  <si>
+    <t>MATH1101</t>
+  </si>
+  <si>
+    <t>Đại số</t>
+  </si>
+  <si>
+    <t>10/12/2011</t>
+  </si>
+  <si>
+    <t>7:00Am</t>
+  </si>
+  <si>
+    <t>9:00Am</t>
   </si>
 </sst>
 </file>
@@ -99,9 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F046EB61-BE10-4508-9729-C93D412EBD8E}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -424,6 +445,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -451,14 +474,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -471,6 +494,29 @@
       </c>
       <c r="G2">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
